--- a/dados/TABNET/Vacinas/Calendario.Nacional.Vacinacao.2020.atualizado (1).xlsx
+++ b/dados/TABNET/Vacinas/Calendario.Nacional.Vacinacao.2020.atualizado (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Projetos Dados\Data Science\Bootcamp-Data-Science-Aplicada-2020\dados\TABNET\Vacinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD266B4-5D88-432D-9586-9309FD7979E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58038A9-7E19-46AE-9672-CEFB4A920945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>CALENDÁRIO NACIONAL DE VACINAÇÃO/2020/PNI/MS</t>
   </si>
@@ -1212,7 +1212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1293,19 +1293,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1313,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1455,6 +1442,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,22 +1467,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,14 +1813,14 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
@@ -1856,27 +1840,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -1992,8 +1976,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2022,7 +2006,9 @@
       <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
@@ -2053,7 +2039,9 @@
       <c r="S5" s="18"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B6" s="21" t="s">
         <v>39</v>
       </c>
@@ -2078,7 +2066,9 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" s="22" t="s">
         <v>40</v>
       </c>
@@ -2109,7 +2099,9 @@
       <c r="S7" s="18"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B8" s="21" t="s">
         <v>43</v>
       </c>
@@ -2134,7 +2126,9 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" s="22" t="s">
         <v>44</v>
       </c>
@@ -2161,7 +2155,9 @@
       <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
@@ -2186,7 +2182,9 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B11" s="22" t="s">
         <v>49</v>
       </c>
@@ -2214,8 +2212,10 @@
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
     </row>
-    <row r="12" spans="1:19" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B12" s="13" t="s">
         <v>52</v>
       </c>
@@ -2245,8 +2245,10 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="17" t="s">
         <v>56</v>
       </c>
@@ -2276,8 +2278,10 @@
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="1:19" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="13" t="s">
         <v>61</v>
       </c>
@@ -2407,10 +2411,10 @@
       <c r="S17" s="41"/>
     </row>
     <row r="18" spans="1:19" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44" t="s">
         <v>74</v>
@@ -2436,34 +2440,33 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:S19"/>
-    <mergeCell ref="A4:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
